--- a/southeast_asia/final_reservoir_storage_level.xlsx
+++ b/southeast_asia/final_reservoir_storage_level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/energy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD\PREP-SHOT modelling\PREP-SHOT-main\southeast_asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BBA973C-A2EF-0C45-87FA-8FF49CF5E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C50F3-DBEC-4C29-A789-A829EF3AC795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{334DD799-27B5-D64B-8AA4-97E2B34CD026}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334DD799-27B5-D64B-8AA4-97E2B34CD026}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_end" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -82,9 +82,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +133,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,9 +149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -289,7 +295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,16 +447,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42190324-D0CB-FF4A-BCE5-5248DBE53CE8}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -462,7 +468,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -472,463 +478,464 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>218</v>
       </c>
       <c r="B3" s="1">
-        <v>10.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1002000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>343</v>
       </c>
       <c r="B4" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>327</v>
       </c>
       <c r="B5" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>237</v>
       </c>
       <c r="B6" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>151</v>
       </c>
       <c r="B7" s="1">
-        <v>4.5000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>117</v>
       </c>
       <c r="B8" s="1">
-        <v>6.7400000000000003E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>674000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>351</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0853999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>108540000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>212</v>
       </c>
       <c r="B10" s="1">
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>2970000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>215</v>
       </c>
       <c r="B11" s="1">
-        <v>8.26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>826000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>389</v>
       </c>
       <c r="B12" s="1">
-        <v>16.829999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1682999999.9999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>366</v>
       </c>
       <c r="B13" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>236</v>
       </c>
       <c r="B14" s="1">
-        <v>22.62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>2262000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>207</v>
       </c>
       <c r="B15" s="1">
-        <v>14.11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1411000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>234</v>
       </c>
       <c r="B16" s="1">
-        <v>29.21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>2921000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>214</v>
       </c>
       <c r="B17" s="1">
-        <v>11.92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1192000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>224</v>
       </c>
       <c r="B18" s="1">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>4700000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>171</v>
       </c>
       <c r="B19" s="1">
-        <v>6.7549999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>675500000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>375</v>
       </c>
       <c r="B20" s="1">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>121000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>404</v>
       </c>
       <c r="B21" s="1">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>505000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>323</v>
       </c>
       <c r="B22" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>1700000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>441</v>
       </c>
       <c r="B23" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>115000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>175</v>
       </c>
       <c r="B24" s="1">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>89000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>162</v>
       </c>
       <c r="B25" s="1">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>25400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>134</v>
       </c>
       <c r="B26" s="1">
-        <v>11.45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>1145000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>127</v>
       </c>
       <c r="B27" s="1">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>142000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>119</v>
       </c>
       <c r="B28" s="1">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>246000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>112</v>
       </c>
       <c r="B29" s="1">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>1060000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>219</v>
       </c>
       <c r="B30" s="1">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>144</v>
       </c>
       <c r="B31" s="1">
-        <v>23.31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>2331000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>181</v>
       </c>
       <c r="B32" s="1">
-        <v>3.496E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>349600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>206</v>
       </c>
       <c r="B33" s="1">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>212000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>374</v>
       </c>
       <c r="B34" s="1">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>20800000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>365</v>
       </c>
       <c r="B35" s="1">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>333000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>195</v>
       </c>
       <c r="B36" s="1">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>528000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>194</v>
       </c>
       <c r="B37" s="1">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>209</v>
       </c>
       <c r="B38" s="1">
-        <v>4.9860000000000007</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>498600000.00000012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>226</v>
       </c>
       <c r="B39" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>132</v>
       </c>
       <c r="B40" s="1">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>5100000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>331</v>
       </c>
       <c r="B41" s="1">
-        <v>13.52413</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>1352413000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>367</v>
       </c>
       <c r="B42" s="1">
-        <v>8.8000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>8800000.0000000019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>409</v>
       </c>
       <c r="B43" s="1">
-        <v>0.30580000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>30580000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>448</v>
       </c>
       <c r="B44" s="1">
-        <v>3.3319999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>333200000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>410</v>
       </c>
       <c r="B45" s="1">
-        <v>9.48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>948000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>415</v>
       </c>
       <c r="B46" s="1">
-        <v>7.7901999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>779020000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>416</v>
       </c>
       <c r="B47" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>419</v>
       </c>
       <c r="B48" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>428</v>
       </c>
       <c r="B49" s="1">
-        <v>2.6415999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>264160000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>430</v>
       </c>
       <c r="B50" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>527</v>
       </c>
       <c r="B51" s="1">
-        <v>5.226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>522600000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>514</v>
       </c>
       <c r="B52" s="1">
-        <v>0.25629999999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>25629999.999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>511</v>
       </c>
       <c r="B53" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>504</v>
       </c>
       <c r="B54" s="1">
-        <v>0.62850000000000006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>62850000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>502</v>
       </c>
       <c r="B55" s="1">
-        <v>8.4399999999999989E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>8439999.9999999981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>302</v>
       </c>
       <c r="B56" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>358</v>
       </c>
       <c r="B57" s="1">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>125000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>284</v>
       </c>
       <c r="B58" s="1">
-        <v>16.95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>1695000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>392</v>
       </c>
       <c r="B59" s="1">
-        <v>2.996</v>
+        <v>299600000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>